--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2228167.886325611</v>
+        <v>2332401.594719059</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12502432.03437992</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9479030.986661805</v>
+        <v>9487943.877913412</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>126.5388824951709</v>
+        <v>338.9455558091275</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -829,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>71.64828417510668</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>9.12465805988983</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>147.636432596079</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>313.9488090355352</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1066,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>27.88167438233093</v>
+        <v>13.02719212039699</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>277.3039539762324</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>15.83694765564068</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>54.79134020099084</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1353,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>269.0845199702597</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1528,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>139.483705355054</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7197280522375</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1822,16 +1824,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>117.4665281367397</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>112.1188594237458</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,7 +2250,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>74.95497330697962</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>188.095826133329</v>
       </c>
     </row>
     <row r="23">
@@ -2482,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>63.841556412593</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2716,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2770,16 +2772,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>117.4665281367395</v>
       </c>
     </row>
     <row r="29">
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>174.8493187430266</v>
+        <v>55.83068150864377</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3010,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3083,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>33.82891891787568</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>37.41782514683995</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3323,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3430,16 +3432,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>12.74007641194023</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>41.02686156550228</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,13 +3562,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.17501931583776</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>30.85302310518084</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3794,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>136.5667167289874</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.605821609171</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W2" t="n">
-        <v>3197.788768583745</v>
+        <v>1555.462343896831</v>
       </c>
       <c r="X2" t="n">
-        <v>2824.323010322666</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>1181.996585635751</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>675.2351809199101</v>
+        <v>1512.301504882965</v>
       </c>
       <c r="C4" t="n">
-        <v>675.2351809199101</v>
+        <v>1512.301504882965</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>1512.301504882965</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>1364.388411300572</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>1217.498463802661</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>1049.51199911094</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>1002.609167878779</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>1174.299679627705</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>1750.112669035316</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2048.98193257148</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>2309.019775324692</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1918.077721765371</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1918.077721765371</v>
+        <v>2365.710580560016</v>
       </c>
       <c r="T4" t="n">
-        <v>1918.077721765371</v>
+        <v>2142.732099754752</v>
       </c>
       <c r="U4" t="n">
-        <v>1628.974854891015</v>
+        <v>2142.732099754752</v>
       </c>
       <c r="V4" t="n">
-        <v>1374.290366685128</v>
+        <v>2142.732099754752</v>
       </c>
       <c r="W4" t="n">
-        <v>1084.873196648167</v>
+        <v>2142.732099754752</v>
       </c>
       <c r="X4" t="n">
-        <v>856.8836457501499</v>
+        <v>1914.742548856734</v>
       </c>
       <c r="Y4" t="n">
-        <v>856.8836457501499</v>
+        <v>1693.949969713204</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221568</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477181</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810557</v>
@@ -4580,37 +4582,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261501</v>
+        <v>2382.341170533246</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285689</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
         <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>657.6489837069648</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>657.6489837069648</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>507.5323442946291</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1395.848283785473</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="V7" t="n">
-        <v>1395.848283785473</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W7" t="n">
-        <v>1106.431113748512</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>878.441562850495</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>657.6489837069648</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1969.423143692378</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
-        <v>1600.460626751966</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1600.460626751966</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1214.672374153722</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>803.6864693641146</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>388.6140192091111</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993391</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993391</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993391</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>3119.628073993391</v>
+        <v>2739.810011970445</v>
       </c>
       <c r="X8" t="n">
-        <v>2746.162315732312</v>
+        <v>2366.344253709365</v>
       </c>
       <c r="Y8" t="n">
-        <v>2356.0229837565</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387296</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.4321398396066</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C10" t="n">
-        <v>380.4321398396066</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672846</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242372</v>
+        <v>1680.26387583351</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1391.161008959154</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621287</v>
+        <v>1136.476520753267</v>
       </c>
       <c r="W10" t="n">
-        <v>608.421690737624</v>
+        <v>847.0593507163063</v>
       </c>
       <c r="X10" t="n">
-        <v>380.4321398396066</v>
+        <v>619.069799818289</v>
       </c>
       <c r="Y10" t="n">
-        <v>380.4321398396066</v>
+        <v>398.2772206747588</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5121,25 +5123,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.7084350851671</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C13" t="n">
-        <v>555.8158034133954</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5297,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5349,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5361,19 +5363,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1963.765362972544</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2387.388512467612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5470,16 +5472,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1569.732795130727</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
@@ -5501,22 +5503,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5546,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5604,16 +5606,16 @@
         <v>842.6091804069456</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5713,10 +5715,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1031.03282245656</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.079034721979</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O21" t="n">
-        <v>2253.988764961266</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.6905094135296</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>700.7543264856228</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
         <v>402.7245934908939</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2371.250989330786</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2151.649524353727</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1862.574297697925</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V22" t="n">
-        <v>1607.889809492038</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W22" t="n">
-        <v>1318.472639455077</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X22" t="n">
-        <v>1090.48308855706</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y22" t="n">
-        <v>869.6905094135296</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5984,10 +5986,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6072,16 +6074,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2382.47666296148</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2382.47666296148</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2162.875197984421</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1873.799971328619</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1619.115483122732</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1329.698313085771</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6217,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6312,19 +6314,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517212</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O27" t="n">
-        <v>2252.221377756499</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>317.6151975578602</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578602</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578602</v>
@@ -6418,16 +6420,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6476,22 +6478,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6500,13 +6502,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6546,10 +6548,10 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>716.6687843969308</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
         <v>1344.266747951538</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>929.7309773356194</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2203.301906354858</v>
+        <v>4567.392820864487</v>
       </c>
       <c r="T31" t="n">
-        <v>1983.700441377799</v>
+        <v>4347.791355887428</v>
       </c>
       <c r="U31" t="n">
-        <v>1694.625214721997</v>
+        <v>4058.716129231626</v>
       </c>
       <c r="V31" t="n">
-        <v>1439.94072651611</v>
+        <v>3804.031641025739</v>
       </c>
       <c r="W31" t="n">
-        <v>1150.523556479149</v>
+        <v>3804.031641025739</v>
       </c>
       <c r="X31" t="n">
-        <v>1150.523556479149</v>
+        <v>3576.042090127722</v>
       </c>
       <c r="Y31" t="n">
-        <v>929.7309773356194</v>
+        <v>3355.249510984192</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2356.04164637206</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>724.7519863413023</v>
+        <v>2985.713220456422</v>
       </c>
       <c r="C34" t="n">
-        <v>555.8158034133954</v>
+        <v>2816.777037528515</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>2666.660398116179</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>2518.747304533786</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>2371.857357035876</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2409.167300603654</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2226.312466258559</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T34" t="n">
-        <v>2006.7110012815</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U34" t="n">
-        <v>1717.635774625697</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V34" t="n">
-        <v>1462.95128641981</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W34" t="n">
-        <v>1173.53411638285</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X34" t="n">
-        <v>945.5445654848324</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="Y34" t="n">
-        <v>724.7519863413023</v>
+        <v>3167.361685286662</v>
       </c>
     </row>
     <row r="35">
@@ -6926,58 +6928,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7020,19 +7022,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>734.6461798836013</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>565.7099969556945</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>415.5933575433587</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7120,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y37" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>411.9631215597619</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G40" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="41">
@@ -7403,55 +7405,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7500,13 +7502,13 @@
         <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>1963.765362972544</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2387.388512467612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>378.6527890600109</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>231.7628415621006</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>231.7628415621006</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7625,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7731,22 +7733,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458823</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8061,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621885</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>162.0073097921333</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1.876970801006905e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23416,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>27.76311574357385</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>45.7142345943317</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23653,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23710,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>134.6711151870883</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>113.5907959652914</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>106.071312694665</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>30.48882721876581</v>
       </c>
     </row>
     <row r="23">
@@ -24370,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>2.533690297528686</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24658,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>101.1181252153553</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>6.176967258617964</v>
+        <v>125.1956044930008</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>131.6952193743932</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>28.95742156328174</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25318,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>133.6938862346289</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25360,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.9994244361423</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>72.11969353038613</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>194.8566322838563</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>3.727996117236501</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>830190.9293394684</v>
+        <v>839103.8205910745</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.759165191</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>816295.759165191</v>
+        <v>816295.7591651911</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>816295.759165191</v>
+        <v>816295.7591651911</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.759165191</v>
       </c>
     </row>
     <row r="15">
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.327398212</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.327398212</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="F2" t="n">
         <v>605359.9497675045</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.949767504</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="I2" t="n">
         <v>605359.9497675042</v>
@@ -26338,22 +26340,22 @@
         <v>605359.9497675041</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675039</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="M2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="N2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="O2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="P2" t="n">
         <v>605359.9497675042</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.949767504</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>203438.7416121063</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26389,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>49110.09270605457</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89134.1790931202</v>
+        <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
+        <v>89134.17909312008</v>
+      </c>
+      <c r="D4" t="n">
         <v>89134.17909312018</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89134.17909312026</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
+        <v>9947.144321768899</v>
+      </c>
+      <c r="G4" t="n">
         <v>9947.144321768897</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9947.144321768899</v>
       </c>
       <c r="H4" t="n">
         <v>9947.144321768897</v>
@@ -26439,22 +26441,22 @@
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.14432176895</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768952</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768859</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768943</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768899</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-910031.5379838932</v>
+        <v>-729838.6390247734</v>
       </c>
       <c r="C6" t="n">
-        <v>418713.2077436987</v>
+        <v>215274.4661315923</v>
       </c>
       <c r="D6" t="n">
-        <v>418713.207743699</v>
+        <v>418713.2077436993</v>
       </c>
       <c r="E6" t="n">
-        <v>168877.8138144725</v>
+        <v>168877.8138144733</v>
       </c>
       <c r="F6" t="n">
+        <v>494290.2756218285</v>
+      </c>
+      <c r="G6" t="n">
+        <v>494290.275621828</v>
+      </c>
+      <c r="H6" t="n">
         <v>494290.2756218284</v>
-      </c>
-      <c r="G6" t="n">
-        <v>494290.2756218282</v>
-      </c>
-      <c r="H6" t="n">
-        <v>494290.2756218282</v>
       </c>
       <c r="I6" t="n">
         <v>494290.2756218282</v>
       </c>
       <c r="J6" t="n">
-        <v>276759.0732245506</v>
+        <v>326685.0978118455</v>
       </c>
       <c r="K6" t="n">
-        <v>494290.2756218285</v>
+        <v>445180.1829157738</v>
       </c>
       <c r="L6" t="n">
-        <v>494290.2756218279</v>
+        <v>494290.2756218282</v>
       </c>
       <c r="M6" t="n">
-        <v>409235.2476863163</v>
+        <v>409235.2476863166</v>
       </c>
       <c r="N6" t="n">
         <v>494290.2756218282</v>
       </c>
       <c r="O6" t="n">
-        <v>494290.2756218286</v>
+        <v>494290.2756218281</v>
       </c>
       <c r="P6" t="n">
-        <v>494290.275621828</v>
+        <v>494290.2756218281</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
+        <v>831.401455402293</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022928</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26823,13 +26825,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="O4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>155.7118084757594</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,13 +26995,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>222.7020862222421</v>
+        <v>10.29541290828547</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27552,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>75.60322498002216</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>79.80749461015752</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>217.6364591749285</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>72.28912962051834</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>258.330163823282</v>
+        <v>273.1846460852159</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>17.30381041108814</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>333.4040210617723</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>164.7576090751784</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>17.43847836633131</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I5" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,10 +31843,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,16 +31855,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>537.6437863443698</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32081,7 +32083,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>307.3280120589134</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32230,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32324,7 +32326,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>601.0567753070492</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,10 +32335,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>248.3870916262918</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32546,19 +32548,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32569,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>399.0581126127094</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32792,10 +32794,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>620.1193660647499</v>
+        <v>547.6926421044561</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,7 +32806,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33032,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P27" t="n">
-        <v>437.8531046913764</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33266,13 +33268,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>616.5397119226058</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>639.8517673857162</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33418,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33494,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,10 +33505,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>242.2322097768141</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33517,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>332.9841464938405</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33740,13 +33742,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,7 +33757,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>400.5469039565762</v>
@@ -33998,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34220,16 +34222,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>375.1407109807906</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>307.3280120589134</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34453,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>211.7351844430268</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>497.4319917882564</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,10 +35491,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,16 +35503,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>395.0475418999253</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35729,7 +35731,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.3462379728918</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35972,7 +35974,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>469.7150632237159</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,10 +35983,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36194,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36217,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>265.0837051983791</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,10 +36442,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>477.9853321427316</v>
+        <v>405.5586081824378</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,7 +36454,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36680,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P27" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36850,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36914,13 +36916,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>477.9853321427316</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>508.510055302383</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37066,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,10 +37153,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37165,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>199.0097390795103</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37388,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,7 +37405,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>257.9506595121318</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37777,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396434</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37868,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>243.7989988974573</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>167.3462379728918</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38101,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>73.1808046631526</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2332401.594719059</v>
+        <v>2328347.46895968</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>14.20741661124915</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>338.9455558091275</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,7 +834,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>71.64828417510668</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>184.5121029743398</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>313.9488090355352</v>
+        <v>241.6499314317624</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>13.02719212039699</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471489</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1186,16 +1186,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>22.79319361026464</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>15.83694765564068</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1293,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>126.7616853474045</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>54.79134020099084</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>100.7197280522375</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>13.7258286485377</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612679</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>117.4665281367397</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408066</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2250,7 +2250,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>105.1162657551305</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>188.095826133329</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>63.841556412593</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,19 +2769,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>117.4665281367395</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>55.83068150864377</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>33.82891891787568</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>41.02686156550228</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>173.2052365248857</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>30.85302310518084</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1181.996585635751</v>
+        <v>1713.412786206038</v>
       </c>
       <c r="C2" t="n">
-        <v>1181.996585635751</v>
+        <v>1344.450269265626</v>
       </c>
       <c r="D2" t="n">
-        <v>1181.996585635751</v>
+        <v>1344.450269265626</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>958.662016667382</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>547.6761118777745</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>131.9713616020633</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.831592188879</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W2" t="n">
-        <v>1555.462343896831</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="X2" t="n">
-        <v>1181.996585635751</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="Y2" t="n">
-        <v>1181.996585635751</v>
+        <v>2100.01262627016</v>
       </c>
     </row>
     <row r="3">
@@ -4403,25 +4403,25 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>458.7060632252736</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
         <v>2175.502629736639</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1512.301504882965</v>
+        <v>685.1760210978775</v>
       </c>
       <c r="C4" t="n">
-        <v>1512.301504882965</v>
+        <v>516.2398381699707</v>
       </c>
       <c r="D4" t="n">
-        <v>1512.301504882965</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E4" t="n">
-        <v>1364.388411300572</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>1217.498463802661</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>1049.51199911094</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936603</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936603</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878779</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627705</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035316</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.98193257148</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324692</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2365.710580560016</v>
+        <v>1450.070258484255</v>
       </c>
       <c r="T4" t="n">
-        <v>2142.732099754752</v>
+        <v>1450.070258484255</v>
       </c>
       <c r="U4" t="n">
-        <v>2142.732099754752</v>
+        <v>1450.070258484255</v>
       </c>
       <c r="V4" t="n">
-        <v>2142.732099754752</v>
+        <v>1195.385770278368</v>
       </c>
       <c r="W4" t="n">
-        <v>2142.732099754752</v>
+        <v>905.9686002414077</v>
       </c>
       <c r="X4" t="n">
-        <v>1914.742548856734</v>
+        <v>905.9686002414077</v>
       </c>
       <c r="Y4" t="n">
-        <v>1693.949969713204</v>
+        <v>685.1760210978775</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1678.62132134232</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
         <v>1678.62132134232</v>
@@ -4555,19 +4555,19 @@
         <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477181</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810557</v>
@@ -4582,37 +4582,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794325</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X5" t="n">
-        <v>2382.341170533246</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="Y5" t="n">
-        <v>2065.221161406442</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791191</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1914.135768168901</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1914.135768168901</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,19 +4804,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3192.291725247109</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>3192.291725247109</v>
       </c>
       <c r="W8" t="n">
-        <v>2739.810011970445</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.344253709365</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="9">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>216.6287558445192</v>
+        <v>975.4401621737621</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445192</v>
+        <v>806.5039792458552</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>656.3873398335195</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>508.4742462511264</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4992,22 +4992,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1680.26387583351</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1391.161008959154</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>1136.476520753267</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="W10" t="n">
-        <v>847.0593507163063</v>
+        <v>1157.088627004002</v>
       </c>
       <c r="X10" t="n">
-        <v>619.069799818289</v>
+        <v>1157.088627004002</v>
       </c>
       <c r="Y10" t="n">
-        <v>398.2772206747588</v>
+        <v>1157.088627004002</v>
       </c>
     </row>
     <row r="11">
@@ -5032,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5059,16 +5059,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>409.1360811687896</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>904.4616873845483</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.8431516380886</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C13" t="n">
-        <v>741.8431516380886</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D13" t="n">
-        <v>591.7265122257528</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>274.8772357154533</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>274.8772357154533</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>107.6811364303332</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>107.6811364303332</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683283</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,46 +5272,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1569.732795130727</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.315625093766</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,34 +5533,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M18" t="n">
-        <v>842.6091804069456</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N18" t="n">
-        <v>1470.207143961552</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>2022.116874200839</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2445.740023695907</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5734,40 +5734,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>1057.95525898292</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>889.0190760550126</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>738.9024366426769</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>590.9893430602838</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1905.631426649717</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W22" t="n">
-        <v>1616.214256612757</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="X22" t="n">
-        <v>1388.224705714739</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
     <row r="23">
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>699.2677182139842</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2382.47666296148</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2382.47666296148</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2162.875197984421</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1873.799971328619</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1619.115483122732</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1329.698313085771</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1101.708762187754</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>880.9161830442239</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,25 +6217,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6244,10 +6244,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1398.968683817745</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3173.601046153952</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4567.392820864487</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4347.791355887428</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>4058.716129231626</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>3804.031641025739</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>3804.031641025739</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>3576.042090127722</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>3355.249510984192</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2985.713220456422</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>2816.777037528515</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>2666.660398116179</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>2518.747304533786</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>2371.857357035876</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>3388.154264430192</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>3167.361685286662</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6916,43 +6916,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6961,25 +6961,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2338.476105524075</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.476105524075</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868273</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,19 +7171,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7192,7 +7192,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>931.4710609784063</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>762.5348780504994</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>1113.119525808646</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>1113.119525808646</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,16 +7636,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111716</v>
@@ -7657,19 +7657,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>315.9123021921476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>35.91627445172475</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621885</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>162.0073097921333</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-1.876970801006905e-12</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-4.280525140988489e-13</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>45.7142345943317</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>67.54000767002782</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>191.8807364711615</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>134.6711151870883</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>146.8157004124962</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>40.30478226780072</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>30.48882721876581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>2.533690297528686</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>101.1181252153553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>125.1956044930008</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>131.6952193743932</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>139.9994244361423</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>112.9792378643585</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25566,10 +25566,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>194.8566322838563</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.759165191</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.759165191</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.759165191</v>
       </c>
     </row>
     <row r="12">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.327398212</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982124</v>
@@ -26325,34 +26325,34 @@
         <v>605359.9497675045</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="G2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="J2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="K2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="M2" t="n">
         <v>605359.949767504</v>
       </c>
-      <c r="H2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="O2" t="n">
         <v>605359.9497675044</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.949767504</v>
       </c>
       <c r="P2" t="n">
         <v>605359.9497675042</v>
@@ -26368,13 +26368,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121063</v>
+        <v>203438.7416121056</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,22 +26392,22 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605457</v>
+        <v>49110.09270605445</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,16 +26420,16 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312008</v>
+        <v>89134.17909312021</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.1790931202</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
@@ -26438,7 +26438,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768854</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
@@ -26450,16 +26450,16 @@
         <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768857</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-729838.6390247734</v>
+        <v>-729838.6390247737</v>
       </c>
       <c r="C6" t="n">
-        <v>215274.4661315923</v>
+        <v>215274.4661315934</v>
       </c>
       <c r="D6" t="n">
-        <v>418713.2077436993</v>
+        <v>418713.2077436987</v>
       </c>
       <c r="E6" t="n">
-        <v>168877.8138144733</v>
+        <v>168530.4345601161</v>
       </c>
       <c r="F6" t="n">
-        <v>494290.2756218285</v>
+        <v>493942.8963674711</v>
       </c>
       <c r="G6" t="n">
-        <v>494290.275621828</v>
+        <v>493942.8963674713</v>
       </c>
       <c r="H6" t="n">
-        <v>494290.2756218284</v>
+        <v>493942.8963674711</v>
       </c>
       <c r="I6" t="n">
-        <v>494290.2756218282</v>
+        <v>493942.8963674716</v>
       </c>
       <c r="J6" t="n">
-        <v>326685.0978118455</v>
+        <v>326337.7185574887</v>
       </c>
       <c r="K6" t="n">
-        <v>445180.1829157738</v>
+        <v>444832.8036614167</v>
       </c>
       <c r="L6" t="n">
-        <v>494290.2756218282</v>
+        <v>493942.8963674711</v>
       </c>
       <c r="M6" t="n">
-        <v>409235.2476863166</v>
+        <v>408887.8684319591</v>
       </c>
       <c r="N6" t="n">
-        <v>494290.2756218282</v>
+        <v>493942.896367471</v>
       </c>
       <c r="O6" t="n">
-        <v>494290.2756218281</v>
+        <v>493942.8963674714</v>
       </c>
       <c r="P6" t="n">
-        <v>494290.2756218281</v>
+        <v>493942.8963674713</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
@@ -26962,13 +26962,13 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757594</v>
+        <v>155.7118084757587</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,13 +26995,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.8111359511562</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>10.29541290828547</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>75.60322498002216</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27587,22 +27587,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>10.15035738739763</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>72.28912962051834</v>
+        <v>144.5880072242912</v>
       </c>
     </row>
     <row r="6">
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,13 +27830,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>273.1846460852159</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>83.32522828944209</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>228.2019783486373</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>333.4040210617723</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>18.65936267552671</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28064,22 +28064,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>164.7576090751784</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>305.187676947251</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>404.0195168876591</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32323,31 +32323,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>618.3341264639744</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>248.3870916262918</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>547.6926421044561</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>333.9544784328825</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33970,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>375.1407109807906</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34444,16 +34444,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>211.7351844430268</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>222.5037706952096</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34792,7 +34792,7 @@
         <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>497.4319917882564</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882195</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306628</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>167.346237972892</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,19 +35971,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>476.2000925419561</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>108.4053175402703</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>405.5586081824378</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>191.358233988438</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>103.6778299969399</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>243.7989988974573</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>73.1808046631526</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2328347.46895968</v>
+        <v>2330107.999262465</v>
       </c>
     </row>
     <row r="7">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>14.20741661124915</v>
+        <v>54.72594858344353</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -718,10 +718,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5121029743398</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>4.910533536225973</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.6499314317624</v>
+        <v>194.57272961248</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>238.917193068544</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>203.1977700471489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>352.629790933701</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>22.79319361026464</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1302,13 +1302,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>126.7616853474045</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>13.7258286485377</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>113.8725945129834</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701341</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>43.55707494718542</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>25.52471385612679</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>179.2499669408066</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>105.1162657551305</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>171.1642910616438</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>173.2052365248857</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>35.41770597126623</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1713.412786206038</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="C2" t="n">
-        <v>1344.450269265626</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="D2" t="n">
-        <v>1344.450269265626</v>
+        <v>933.216177576194</v>
       </c>
       <c r="E2" t="n">
-        <v>958.662016667382</v>
+        <v>933.216177576194</v>
       </c>
       <c r="F2" t="n">
-        <v>547.6761118777745</v>
+        <v>522.2302727865865</v>
       </c>
       <c r="G2" t="n">
-        <v>131.9713616020633</v>
+        <v>106.5255225108754</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>2100.01262627016</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2100.01262627016</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X2" t="n">
-        <v>2100.01262627016</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="Y2" t="n">
-        <v>2100.01262627016</v>
+        <v>1291.481876182944</v>
       </c>
     </row>
     <row r="3">
@@ -4403,34 +4403,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>458.7060632252736</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L3" t="n">
-        <v>1092.885047004312</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M3" t="n">
-        <v>1456.147065963532</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>685.1760210978775</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>516.2398381699707</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>366.1231987576349</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1450.070258484255</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1450.070258484255</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1450.070258484255</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V4" t="n">
-        <v>1195.385770278368</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W4" t="n">
-        <v>905.9686002414077</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="X4" t="n">
-        <v>905.9686002414077</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="Y4" t="n">
-        <v>685.1760210978775</v>
+        <v>1087.683159487371</v>
       </c>
     </row>
     <row r="5">
@@ -4564,19 +4564,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
@@ -4591,25 +4591,25 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176917</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X5" t="n">
-        <v>2678.274518176917</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="Y5" t="n">
         <v>2434.183678346854</v>
@@ -4643,16 +4643,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4661,7 +4661,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
         <v>2407.41198488674</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4731,19 +4731,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088492</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088492</v>
+        <v>1685.964050039457</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088492</v>
+        <v>1431.27956183357</v>
       </c>
       <c r="W7" t="n">
-        <v>1722.044275313594</v>
+        <v>1141.86239179661</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>913.8728408985925</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.318139675982</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>879.7731733615576</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>879.7731733615576</v>
       </c>
       <c r="F8" t="n">
         <v>523.5814653477182</v>
@@ -4801,7 +4801,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3192.291725247109</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V8" t="n">
-        <v>3192.291725247109</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W8" t="n">
-        <v>2839.523069976995</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X8" t="n">
-        <v>2466.057311715915</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.917979740103</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>975.4401621737621</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>806.5039792458552</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>656.3873398335195</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>508.4742462511264</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1446.505797040963</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V10" t="n">
-        <v>1446.505797040963</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W10" t="n">
-        <v>1157.088627004002</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X10" t="n">
-        <v>1157.088627004002</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y10" t="n">
-        <v>1157.088627004002</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5038,13 +5038,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,10 +5053,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
@@ -5071,10 +5071,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.843151638089</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C13" t="n">
-        <v>572.9069687101821</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D13" t="n">
-        <v>422.7903292978464</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>274.8772357154533</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>274.8772357154533</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>107.6811364303332</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>107.6811364303332</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5208,43 +5208,43 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235169</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.50678425811</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602308</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1755.431557602308</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1466.014387565348</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611859</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683287</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,31 +5272,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5305,22 +5305,22 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,7 +5354,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803938</v>
@@ -5369,7 +5369,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282754</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458823</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797189</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5512,10 +5512,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5530,25 +5530,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797189</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,40 +5734,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1057.95525898292</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C22" t="n">
-        <v>889.0190760550126</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D22" t="n">
-        <v>738.9024366426769</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>590.9893430602838</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854707</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W22" t="n">
-        <v>1688.385853854707</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X22" t="n">
-        <v>1460.396302956689</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y22" t="n">
-        <v>1239.603723813159</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="23">
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.169322192977</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.094095537175</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.409607331288</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1190.992437294328</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>963.0028863963103</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
     <row r="32">
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168605</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6958,31 +6958,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>2052.406834234631</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1797.722346028744</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1508.305175991783</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.315625093766</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,52 +7162,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282754</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458823</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>129.5921236250085</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>35.91627445172475</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>-4.280525140988489e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>67.54000767002782</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>111.8370608760538</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>102.8768876993838</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>191.8807364711615</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>46.45968844823054</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24138,10 +24138,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>40.30478226780072</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>166.0397529241849</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>46.24115926564448</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>112.9792378643585</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>104.8770068749577</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>816295.759165191</v>
+        <v>816295.7591651911</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>816295.759165191</v>
+        <v>816295.7591651911</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>816295.759165191</v>
+        <v>816295.7591651911</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>816295.759165191</v>
+        <v>816295.7591651911</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.759165191</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>816295.759165191</v>
+        <v>816295.7591651911</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>816295.759165191</v>
+        <v>816295.7591651911</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>816295.759165191</v>
+        <v>816295.7591651911</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="F2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="G2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="I2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="K2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="L2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="I2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>605359.9497675041</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.949767504</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.949767504</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>203438.7416121056</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
+        <v>89134.17909312024</v>
+      </c>
+      <c r="D4" t="n">
         <v>89134.17909312021</v>
       </c>
-      <c r="D4" t="n">
-        <v>89134.1790931202</v>
-      </c>
       <c r="E4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768948</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768934</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
@@ -26438,7 +26438,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768854</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
@@ -26447,13 +26447,13 @@
         <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
+        <v>9947.144321768959</v>
+      </c>
+      <c r="M4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="M4" t="n">
-        <v>9947.144321768857</v>
-      </c>
       <c r="N4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768952</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-729838.6390247737</v>
+        <v>-729838.6390247734</v>
       </c>
       <c r="C6" t="n">
         <v>215274.4661315934</v>
       </c>
       <c r="D6" t="n">
-        <v>418713.2077436987</v>
+        <v>418713.2077436985</v>
       </c>
       <c r="E6" t="n">
-        <v>168530.4345601161</v>
+        <v>168843.0758890372</v>
       </c>
       <c r="F6" t="n">
-        <v>493942.8963674711</v>
+        <v>494255.5376963929</v>
       </c>
       <c r="G6" t="n">
-        <v>493942.8963674713</v>
+        <v>494255.5376963926</v>
       </c>
       <c r="H6" t="n">
-        <v>493942.8963674711</v>
+        <v>494255.5376963923</v>
       </c>
       <c r="I6" t="n">
-        <v>493942.8963674716</v>
+        <v>494255.5376963924</v>
       </c>
       <c r="J6" t="n">
-        <v>326337.7185574887</v>
+        <v>326650.3598864098</v>
       </c>
       <c r="K6" t="n">
-        <v>444832.8036614167</v>
+        <v>445145.4449903378</v>
       </c>
       <c r="L6" t="n">
-        <v>493942.8963674711</v>
+        <v>494255.5376963925</v>
       </c>
       <c r="M6" t="n">
-        <v>408887.8684319591</v>
+        <v>409200.5097608806</v>
       </c>
       <c r="N6" t="n">
-        <v>493942.896367471</v>
+        <v>494255.5376963926</v>
       </c>
       <c r="O6" t="n">
-        <v>493942.8963674714</v>
+        <v>494255.5376963924</v>
       </c>
       <c r="P6" t="n">
-        <v>493942.8963674713</v>
+        <v>494255.5376963924</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.992550358016083e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.992550358016083e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.992550358016083e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.992550358016083e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.992550358016083e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.992550358016083e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>155.7118084757587</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>190.8166233022538</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.992550358016083e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>190.8166233022538</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.8111359511562</v>
+        <v>246.2926039789618</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,10 +27438,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>10.15035738739763</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>281.612464800365</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>144.5880072242912</v>
+        <v>191.6652090435736</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,13 +27830,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>47.29464513706893</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>83.32522828944209</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>54.24625480801046</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>228.2019783486373</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28022,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>18.65936267552671</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28061,25 +28061,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28280,7 +28280,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>3.495298818162785e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>7.897926874522848e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -29814,7 +29814,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30282,7 +30282,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,37 +31357,37 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
@@ -31396,7 +31396,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31445,16 +31445,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
         <v>300.7247737883114</v>
@@ -31463,19 +31463,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780294</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,37 +31837,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>404.0195168876591</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>618.3341264639744</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>222.5037706952096</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>265.4651371077849</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35576,10 +35576,10 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010488</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>476.2000925419561</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
